--- a/crawl_results/nyu.xlsx
+++ b/crawl_results/nyu.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:G1"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,36 +434,625 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Code</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Course Name</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Cred</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Professor</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Room</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Time</t>
-        </is>
-      </c>
+      <c r="B1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Undergraduate</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Introduction to Marine Ecology and Conservation</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>CAS Graded</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Jennifer Jacquet
+</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Jennifer Jacquet
+</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Jennifer Jacquet</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+09/02/2021 - 12/14/2021
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>8904</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Ethics and Animals</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4 units</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Tu 5:00PM - 7:30PM</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>21118</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Literature and the Environment</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4 units</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Tu 11:00AM - 1:30PM</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>9652</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Animals and Public Policy</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4 units</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Th 5:00PM - 7:30PM</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>7762</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Culture, Power, Society</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4 units</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Bldg:CANT  Room:101 Loc: Washington Square</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Tu 11:00AM - 12:15PM
+</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>7763</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Culture, Power, Society</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0 units</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Alejandro Jaramillo
+</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>09/02/2021 - 12/14/2021</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+In-Person
+</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>7764</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Culture, Power, Society</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0 units</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Rohan Sengupta
+</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>09/02/2021 - 12/14/2021</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+In-Person
+</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>7765</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Culture, Power, Society</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0 units</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Moira Peckham
+</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>09/02/2021 - 12/14/2021</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+In-Person
+</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>7766</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Culture, Power, Society</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0 units</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Alejandro Jaramillo
+</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>09/02/2021 - 12/14/2021</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+In-Person
+</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>9371</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Culture, Power, Society</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0 units</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Katrina Martinez
+</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>09/02/2021 - 12/14/2021</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+In-Person
+</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>9372</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Culture, Power, Society</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0 units</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Sujit Thomas
+</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>09/02/2021 - 12/14/2021</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+In-Person
+</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>10568</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Culture, Power, Society</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0 units</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Sujit Thomas
+</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>09/02/2021 - 12/14/2021</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+In-Person
+</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>10569</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Culture, Power, Society</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0 units</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Rohan Sengupta
+</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>09/02/2021 - 12/14/2021</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+In-Person
+</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>26334</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Culture, Power, Society</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0 units</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Katrina Martinez
+</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>09/02/2021 - 12/14/2021</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+In-Person
+</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>7767</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Human Evolution</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4 units</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Bldg:CANT  Room:101 Loc: Washington Square</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Mo 12:30PM - 1:45PM
+</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>7775</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Human Evolution</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0 units</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Jessica Gunson
+</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>09/02/2021 - 12/14/2021</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+In-Person
+</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
